--- a/biology/Zoologie/Institut_Max-Planck_d'ornithologie/Institut_Max-Planck_d'ornithologie.xlsx
+++ b/biology/Zoologie/Institut_Max-Planck_d'ornithologie/Institut_Max-Planck_d'ornithologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_Max-Planck_d%27ornithologie</t>
+          <t>Institut_Max-Planck_d'ornithologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut Max-Planck d'ornithologie est un institut de recherche extra-universitaire dépendant de la Société Max-Planck situé à Pöcking (Haute-Bavière), dans le centre scientifique de Seewiesen (ainsi qu'un centre à Radolfzell et un à Constance). L'Institut mène principalement de la recherche fondamentale en sciences de la nature, dans le domaine des neurosciences, de l'écologie comportementale, la biologie de l’évolution et la migration.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_Max-Planck_d%27ornithologie</t>
+          <t>Institut_Max-Planck_d'ornithologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondé en 1998 comme Centre de Recherche d'ornithologie au sein de la Société Max-Planck à travers l'indépendance du département Gwinner (Andechs) ainsi que de la station ornithologique de Radolfzell issus de l'Institut Max-Planck de physiologie comportementale à cause de sa fermeture, 2001 renommé Centre de Recherche Max-Planck d'ornithologie, puis renommé 2004 en Institut Max-Planck d'ornithologie.
 L'Institut Max-Planck de physiologie comportementale a été fondé en 1954 sous la direction d'Erich von Holst et de Konrad Lorenz (Prix Nobel de physiologie ou médecine en 1973) et fermé en 1999. Le domaine de recherches se concentre sur l'ornithologie de sorte qu'il devient un centre de recherches dirigé par Eberhard Gwinner et Peter Berthold.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_Max-Planck_d%27ornithologie</t>
+          <t>Institut_Max-Planck_d'ornithologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Institut se compose de quatre départements et de six groupes de recherche sur les sites de Radolfzell/Constance et Seewiesen.
 Constance
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Institut_Max-Planck_d%27ornithologie</t>
+          <t>Institut_Max-Planck_d'ornithologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Installations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut dispose à Seewiesen d'une soufflerie depuis 1999 permettant l'étude de la migration. Il s'agit de la deuxième soufflerie au monde construit pour les essais en vol avec des oiseaux. Au-dessus, le dôme d'un planétarium permet l'étude de l'orientation des animaux sous un ciel étoilé. 
 </t>
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Institut_Max-Planck_d%27ornithologie</t>
+          <t>Institut_Max-Planck_d'ornithologie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>International Max Planck Research School</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baguage du sud de l'Allemagne, de l'Autriche et de Berlin est coordonné à l'observatoire de Radolfzell. En 2010 s'est ouvert le centre d'accueil interactif Maxcine de Radolfzell. Depuis 2009, l'Institut intègre ses étudiants en thèse dans un programme international, l'International Max Planck Research School for Organismal Biology, une école d'études avancées, en collaboration avec l'université de Constance.
 </t>
